--- a/ig/main/ValueSet-JDV-J285-Besoins-SERAFIN.xlsx
+++ b/ig/main/ValueSet-JDV-J285-Besoins-SERAFIN.xlsx
@@ -306,7 +306,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-SERAFINPH/</t>
+    <t>https://smt.esante.gouv.fr/terminologie-SERAFINPH</t>
   </si>
 </sst>
 </file>

--- a/ig/main/ValueSet-JDV-J285-Besoins-SERAFIN.xlsx
+++ b/ig/main/ValueSet-JDV-J285-Besoins-SERAFIN.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
